--- a/Source/api/FoodAdvisr/ApiData/ApiFoodAdvisr.xlsx
+++ b/Source/api/FoodAdvisr/ApiData/ApiFoodAdvisr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Description</t>
   </si>
@@ -72,13 +72,16 @@
   </si>
   <si>
     <t>longitude(varchar),Latitude(varchar)</t>
+  </si>
+  <si>
+    <t>{"status":0,"message":"Success","result":[{"FHRSID":94502,"LocalAuthorityBusinessID":"2768","BusinessName":"Eastern Sea Chinese Takeaway","BusinessType":"Takeaway\/sandwich shop","BusinessTypeID":"7844","RatingValue":"4","RatingKey":"fhrs_4_en-GB","RatingDate":"2016-08-30","LocalAuthorityCode":"228","LocalAuthorityName":"Broadland","LocalAuthorityWebSite":"http:\/\/www.broadland.gov.uk","LocalAuthorityEmailAddress":"foodandsafety@broadland.gov.uk","SchemeType":"FHRS","NewRatingPending":"False","Longitude":"1.25172300000000","Latitude":"52.79412300000000","Hygiene":"10","Structural":"5","ConfidenceInManagement":"5","distance":0},{"FHRSID":95578,"LocalAuthorityBusinessID":"2859","BusinessName":"Budgens of Aylsham","BusinessType":"Retailers - supermarkets\/hypermarkets","BusinessTypeID":"7840","RatingValue":"5","RatingKey":"fhrs_5_en-GB","RatingDate":"2017-06-08","LocalAuthorityCode":"228","LocalAuthorityName":"Broadland","LocalAuthorityWebSite":"http:\/\/www.broadland.gov.uk","LocalAuthorityEmailAddress":"foodandsafety@broadland.gov.uk","SchemeType":"FHRS","NewRatingPending":"False","Longitude":"1.25172300000000","Latitude":"52.79412300000000","Hygiene":"0","Structural":"5","ConfidenceInManagement":"0","distance":0},</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +103,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,13 +147,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,7 +439,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -497,6 +507,9 @@
       </c>
       <c r="E3" t="s">
         <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
